--- a/spec/xlsx/test.xlsx
+++ b/spec/xlsx/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RubyTools\skdb\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RubyTools\skdb\spec\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12406,7 +12406,7 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12462,6 +12462,33 @@
       </c>
       <c r="C2">
         <v>19</v>
+      </c>
+      <c r="D2">
+        <v>1560</v>
+      </c>
+      <c r="E2">
+        <v>400</v>
+      </c>
+      <c r="F2">
+        <v>356</v>
+      </c>
+      <c r="G2">
+        <v>3556</v>
+      </c>
+      <c r="H2">
+        <v>1062</v>
+      </c>
+      <c r="I2">
+        <v>700</v>
+      </c>
+      <c r="J2">
+        <v>4010</v>
+      </c>
+      <c r="K2">
+        <v>1288</v>
+      </c>
+      <c r="L2">
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/spec/xlsx/test.xlsx
+++ b/spec/xlsx/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RubyTools\skdb\spec\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RubyTools\skdb\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,11 +14,12 @@
   <sheets>
     <sheet name="skills" sheetId="1" r:id="rId1"/>
     <sheet name="stats" sheetId="4" r:id="rId2"/>
-    <sheet name="attributes" sheetId="2" r:id="rId3"/>
-    <sheet name="LUT" sheetId="3" r:id="rId4"/>
+    <sheet name="stats_base" sheetId="5" r:id="rId3"/>
+    <sheet name="attributes" sheetId="2" r:id="rId4"/>
+    <sheet name="LUT" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">attributes!$A$1:$B$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">attributes!$A$1:$B$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">skills!$A$1:$AE$246</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="937">
   <si>
     <t>attributes</t>
   </si>
@@ -1788,9 +1789,6 @@
     <t>charles_3_1</t>
   </si>
   <si>
-    <t>skill_3_0</t>
-  </si>
-  <si>
     <t>General Skull</t>
   </si>
   <si>
@@ -1803,9 +1801,6 @@
     <t>Morale Boost</t>
   </si>
   <si>
-    <t>skill_3_1</t>
-  </si>
-  <si>
     <t>skud_3_0</t>
   </si>
   <si>
@@ -2658,9 +2653,6 @@
     <t>charles_3</t>
   </si>
   <si>
-    <t>skill_3</t>
-  </si>
-  <si>
     <t>skud_3</t>
   </si>
   <si>
@@ -2760,9 +2752,6 @@
     <t>mingming_6_2</t>
   </si>
   <si>
-    <t>Sprout's Friend Ming Ming</t>
-  </si>
-  <si>
     <t>Static Name</t>
   </si>
   <si>
@@ -2806,6 +2795,54 @@
   </si>
   <si>
     <t>mingming_6</t>
+  </si>
+  <si>
+    <t>Sprout's Friend MingMing</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>7_knight</t>
+  </si>
+  <si>
+    <t>4_lord</t>
+  </si>
+  <si>
+    <t>regular</t>
+  </si>
+  <si>
+    <t>asgar</t>
+  </si>
+  <si>
+    <t>aisha</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>surrogate</t>
+  </si>
+  <si>
+    <t>skull_3</t>
+  </si>
+  <si>
+    <t>skull_3_0</t>
+  </si>
+  <si>
+    <t>skull_3_1</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +2858,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2831,6 +2868,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2847,9 +2890,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3132,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE258"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3241,22 +3285,22 @@
         <v>108</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>805</v>
+      </c>
+      <c r="AB1" t="s">
         <v>806</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>808</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>809</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>810</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -3616,7 +3660,7 @@
         <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
@@ -4334,7 +4378,7 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D30">
         <v>140</v>
@@ -4657,7 +4701,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I40" t="s">
         <v>99</v>
@@ -5216,7 +5260,7 @@
         <v>292</v>
       </c>
       <c r="C57" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D57">
         <v>82</v>
@@ -5624,7 +5668,7 @@
         <v>321</v>
       </c>
       <c r="C69" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D69">
         <v>70</v>
@@ -5873,7 +5917,7 @@
         <v>337</v>
       </c>
       <c r="C75" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D75">
         <v>70</v>
@@ -6095,7 +6139,7 @@
         <v>347</v>
       </c>
       <c r="C81" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D81">
         <v>74</v>
@@ -6215,7 +6259,7 @@
         <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D84">
         <v>120</v>
@@ -6247,7 +6291,7 @@
         <v>353</v>
       </c>
       <c r="C85" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>140</v>
@@ -6326,7 +6370,7 @@
         <v>361</v>
       </c>
       <c r="C87" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>61</v>
@@ -6403,10 +6447,10 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B88" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="C88" t="s">
         <v>364</v>
@@ -6444,10 +6488,10 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B89" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="C89" t="s">
         <v>365</v>
@@ -6476,10 +6520,10 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B90" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="C90" t="s">
         <v>366</v>
@@ -6646,7 +6690,7 @@
         <v>378</v>
       </c>
       <c r="C94" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D94">
         <v>105</v>
@@ -6925,7 +6969,7 @@
         <v>396</v>
       </c>
       <c r="C103" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D103">
         <v>150</v>
@@ -7125,7 +7169,7 @@
         <v>412</v>
       </c>
       <c r="C110" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>56</v>
@@ -9340,13 +9384,13 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>935</v>
+      </c>
+      <c r="B175" t="s">
         <v>585</v>
       </c>
-      <c r="B175" t="s">
-        <v>586</v>
-      </c>
       <c r="C175" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D175">
         <v>58</v>
@@ -9381,13 +9425,13 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>590</v>
+        <v>936</v>
       </c>
       <c r="B176" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C176" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D176">
         <v>58</v>
@@ -9413,13 +9457,13 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>589</v>
+      </c>
+      <c r="B177" t="s">
+        <v>590</v>
+      </c>
+      <c r="C177" t="s">
         <v>591</v>
-      </c>
-      <c r="B177" t="s">
-        <v>592</v>
-      </c>
-      <c r="C177" t="s">
-        <v>593</v>
       </c>
       <c r="D177">
         <v>48</v>
@@ -9436,13 +9480,13 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B178" t="s">
+        <v>590</v>
+      </c>
+      <c r="C178" t="s">
         <v>592</v>
-      </c>
-      <c r="C178" t="s">
-        <v>594</v>
       </c>
       <c r="D178">
         <v>58</v>
@@ -9468,13 +9512,13 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>594</v>
+      </c>
+      <c r="B179" t="s">
+        <v>595</v>
+      </c>
+      <c r="C179" t="s">
         <v>596</v>
-      </c>
-      <c r="B179" t="s">
-        <v>597</v>
-      </c>
-      <c r="C179" t="s">
-        <v>598</v>
       </c>
       <c r="D179">
         <v>62</v>
@@ -9509,13 +9553,13 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B180" t="s">
+        <v>595</v>
+      </c>
+      <c r="C180" t="s">
         <v>597</v>
-      </c>
-      <c r="C180" t="s">
-        <v>599</v>
       </c>
       <c r="D180">
         <v>72</v>
@@ -9559,13 +9603,13 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B181" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C181" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>563</v>
@@ -9579,13 +9623,13 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>601</v>
+      </c>
+      <c r="B182" t="s">
+        <v>602</v>
+      </c>
+      <c r="C182" t="s">
         <v>603</v>
-      </c>
-      <c r="B182" t="s">
-        <v>604</v>
-      </c>
-      <c r="C182" t="s">
-        <v>605</v>
       </c>
       <c r="D182">
         <v>56</v>
@@ -9611,13 +9655,13 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B183" t="s">
+        <v>602</v>
+      </c>
+      <c r="C183" t="s">
         <v>604</v>
-      </c>
-      <c r="C183" t="s">
-        <v>606</v>
       </c>
       <c r="D183">
         <v>66</v>
@@ -9643,13 +9687,13 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B184" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C184" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>16</v>
@@ -9663,13 +9707,13 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>607</v>
+      </c>
+      <c r="B185" t="s">
+        <v>608</v>
+      </c>
+      <c r="C185" t="s">
         <v>609</v>
-      </c>
-      <c r="B185" t="s">
-        <v>610</v>
-      </c>
-      <c r="C185" t="s">
-        <v>611</v>
       </c>
       <c r="D185">
         <v>56</v>
@@ -9686,13 +9730,13 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B186" t="s">
+        <v>608</v>
+      </c>
+      <c r="C186" t="s">
         <v>610</v>
-      </c>
-      <c r="C186" t="s">
-        <v>612</v>
       </c>
       <c r="D186">
         <v>58</v>
@@ -9718,13 +9762,13 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B187" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C187" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>16</v>
@@ -9738,13 +9782,13 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>613</v>
+      </c>
+      <c r="B188" t="s">
+        <v>614</v>
+      </c>
+      <c r="C188" t="s">
         <v>615</v>
-      </c>
-      <c r="B188" t="s">
-        <v>616</v>
-      </c>
-      <c r="C188" t="s">
-        <v>617</v>
       </c>
       <c r="D188">
         <v>64</v>
@@ -9779,13 +9823,13 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B189" t="s">
+        <v>614</v>
+      </c>
+      <c r="C189" t="s">
         <v>616</v>
-      </c>
-      <c r="C189" t="s">
-        <v>618</v>
       </c>
       <c r="D189">
         <v>74</v>
@@ -9820,13 +9864,13 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B190" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C190" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>41</v>
@@ -9858,13 +9902,13 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>620</v>
+      </c>
+      <c r="B191" t="s">
+        <v>621</v>
+      </c>
+      <c r="C191" t="s">
         <v>622</v>
-      </c>
-      <c r="B191" t="s">
-        <v>623</v>
-      </c>
-      <c r="C191" t="s">
-        <v>624</v>
       </c>
       <c r="D191">
         <v>48</v>
@@ -9881,13 +9925,13 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B192" t="s">
+        <v>621</v>
+      </c>
+      <c r="C192" t="s">
         <v>623</v>
-      </c>
-      <c r="C192" t="s">
-        <v>625</v>
       </c>
       <c r="D192">
         <v>58</v>
@@ -9904,13 +9948,13 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>624</v>
+      </c>
+      <c r="B193" t="s">
+        <v>625</v>
+      </c>
+      <c r="C193" t="s">
         <v>626</v>
-      </c>
-      <c r="B193" t="s">
-        <v>627</v>
-      </c>
-      <c r="C193" t="s">
-        <v>628</v>
       </c>
       <c r="D193">
         <v>58</v>
@@ -9945,13 +9989,13 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B194" t="s">
+        <v>625</v>
+      </c>
+      <c r="C194" t="s">
         <v>627</v>
-      </c>
-      <c r="C194" t="s">
-        <v>629</v>
       </c>
       <c r="D194">
         <v>48</v>
@@ -9995,13 +10039,13 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B195" t="s">
+        <v>628</v>
+      </c>
+      <c r="C195" t="s">
         <v>630</v>
-      </c>
-      <c r="C195" t="s">
-        <v>632</v>
       </c>
       <c r="D195">
         <v>48</v>
@@ -10018,13 +10062,13 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B196" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C196" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D196">
         <v>68</v>
@@ -10041,13 +10085,13 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>632</v>
+      </c>
+      <c r="B197" t="s">
+        <v>633</v>
+      </c>
+      <c r="C197" t="s">
         <v>634</v>
-      </c>
-      <c r="B197" t="s">
-        <v>635</v>
-      </c>
-      <c r="C197" t="s">
-        <v>636</v>
       </c>
       <c r="D197">
         <v>60</v>
@@ -10082,13 +10126,13 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B198" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C198" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D198">
         <v>70</v>
@@ -10123,13 +10167,13 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>636</v>
+      </c>
+      <c r="B199" t="s">
+        <v>637</v>
+      </c>
+      <c r="C199" t="s">
         <v>638</v>
-      </c>
-      <c r="B199" t="s">
-        <v>639</v>
-      </c>
-      <c r="C199" t="s">
-        <v>640</v>
       </c>
       <c r="D199">
         <v>62</v>
@@ -10155,13 +10199,13 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B200" t="s">
+        <v>637</v>
+      </c>
+      <c r="C200" t="s">
         <v>639</v>
-      </c>
-      <c r="C200" t="s">
-        <v>641</v>
       </c>
       <c r="D200">
         <v>72</v>
@@ -10187,13 +10231,13 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B201" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C201" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>563</v>
@@ -10207,13 +10251,13 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>641</v>
+      </c>
+      <c r="B202" t="s">
+        <v>642</v>
+      </c>
+      <c r="C202" t="s">
         <v>643</v>
-      </c>
-      <c r="B202" t="s">
-        <v>644</v>
-      </c>
-      <c r="C202" t="s">
-        <v>645</v>
       </c>
       <c r="D202">
         <v>64</v>
@@ -10248,13 +10292,13 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B203" t="s">
+        <v>642</v>
+      </c>
+      <c r="C203" t="s">
         <v>644</v>
-      </c>
-      <c r="C203" t="s">
-        <v>646</v>
       </c>
       <c r="D203">
         <v>94</v>
@@ -10289,13 +10333,13 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B204" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C204" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>17</v>
@@ -10309,13 +10353,13 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>646</v>
+      </c>
+      <c r="B205" t="s">
+        <v>647</v>
+      </c>
+      <c r="C205" t="s">
         <v>648</v>
-      </c>
-      <c r="B205" t="s">
-        <v>649</v>
-      </c>
-      <c r="C205" t="s">
-        <v>650</v>
       </c>
       <c r="D205">
         <v>90</v>
@@ -10350,13 +10394,13 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B206" t="s">
+        <v>647</v>
+      </c>
+      <c r="C206" t="s">
         <v>649</v>
-      </c>
-      <c r="C206" t="s">
-        <v>651</v>
       </c>
       <c r="D206">
         <v>76</v>
@@ -10400,13 +10444,13 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B207" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C207" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>18</v>
@@ -10420,13 +10464,13 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>651</v>
+      </c>
+      <c r="B208" t="s">
+        <v>652</v>
+      </c>
+      <c r="C208" t="s">
         <v>653</v>
-      </c>
-      <c r="B208" t="s">
-        <v>654</v>
-      </c>
-      <c r="C208" t="s">
-        <v>655</v>
       </c>
       <c r="D208">
         <v>58</v>
@@ -10461,13 +10505,13 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B209" t="s">
+        <v>652</v>
+      </c>
+      <c r="C209" t="s">
         <v>654</v>
-      </c>
-      <c r="C209" t="s">
-        <v>656</v>
       </c>
       <c r="D209">
         <v>120</v>
@@ -10484,13 +10528,13 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>655</v>
+      </c>
+      <c r="B210" t="s">
+        <v>656</v>
+      </c>
+      <c r="C210" t="s">
         <v>657</v>
-      </c>
-      <c r="B210" t="s">
-        <v>658</v>
-      </c>
-      <c r="C210" t="s">
-        <v>659</v>
       </c>
       <c r="D210">
         <v>58</v>
@@ -10525,13 +10569,13 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B211" t="s">
+        <v>656</v>
+      </c>
+      <c r="C211" t="s">
         <v>658</v>
-      </c>
-      <c r="C211" t="s">
-        <v>660</v>
       </c>
       <c r="D211">
         <v>88</v>
@@ -10557,13 +10601,13 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>659</v>
+      </c>
+      <c r="B212" t="s">
+        <v>660</v>
+      </c>
+      <c r="C212" t="s">
         <v>661</v>
-      </c>
-      <c r="B212" t="s">
-        <v>662</v>
-      </c>
-      <c r="C212" t="s">
-        <v>663</v>
       </c>
       <c r="D212">
         <v>54</v>
@@ -10580,13 +10624,13 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B213" t="s">
+        <v>660</v>
+      </c>
+      <c r="C213" t="s">
         <v>662</v>
-      </c>
-      <c r="C213" t="s">
-        <v>664</v>
       </c>
       <c r="D213">
         <v>74</v>
@@ -10621,16 +10665,16 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B214" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C214" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F214" t="s">
         <v>96</v>
@@ -10639,7 +10683,7 @@
         <v>60</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I214" t="s">
         <v>96</v>
@@ -10650,13 +10694,13 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>664</v>
+      </c>
+      <c r="B215" t="s">
+        <v>665</v>
+      </c>
+      <c r="C215" t="s">
         <v>666</v>
-      </c>
-      <c r="B215" t="s">
-        <v>667</v>
-      </c>
-      <c r="C215" t="s">
-        <v>668</v>
       </c>
       <c r="D215">
         <v>54</v>
@@ -10700,13 +10744,13 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B216" t="s">
+        <v>665</v>
+      </c>
+      <c r="C216" t="s">
         <v>667</v>
-      </c>
-      <c r="C216" t="s">
-        <v>669</v>
       </c>
       <c r="D216">
         <v>74</v>
@@ -10727,7 +10771,7 @@
         <v>145</v>
       </c>
       <c r="J216" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>49</v>
@@ -10750,13 +10794,13 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B217" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C217" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>29</v>
@@ -10779,13 +10823,13 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>670</v>
+      </c>
+      <c r="B218" t="s">
+        <v>671</v>
+      </c>
+      <c r="C218" t="s">
         <v>672</v>
-      </c>
-      <c r="B218" t="s">
-        <v>673</v>
-      </c>
-      <c r="C218" t="s">
-        <v>674</v>
       </c>
       <c r="D218">
         <v>62</v>
@@ -10820,13 +10864,13 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B219" t="s">
+        <v>671</v>
+      </c>
+      <c r="C219" t="s">
         <v>673</v>
-      </c>
-      <c r="C219" t="s">
-        <v>675</v>
       </c>
       <c r="D219">
         <v>62</v>
@@ -10852,13 +10896,13 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B220" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C220" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>34</v>
@@ -10881,13 +10925,13 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>675</v>
+      </c>
+      <c r="B221" t="s">
+        <v>676</v>
+      </c>
+      <c r="C221" t="s">
         <v>677</v>
-      </c>
-      <c r="B221" t="s">
-        <v>678</v>
-      </c>
-      <c r="C221" t="s">
-        <v>679</v>
       </c>
       <c r="D221">
         <v>52</v>
@@ -10904,13 +10948,13 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B222" t="s">
+        <v>676</v>
+      </c>
+      <c r="C222" t="s">
         <v>678</v>
-      </c>
-      <c r="C222" t="s">
-        <v>680</v>
       </c>
       <c r="D222">
         <v>62</v>
@@ -10945,13 +10989,13 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B223" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C223" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>19</v>
@@ -10965,13 +11009,13 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>680</v>
+      </c>
+      <c r="B224" t="s">
+        <v>681</v>
+      </c>
+      <c r="C224" t="s">
         <v>682</v>
-      </c>
-      <c r="B224" t="s">
-        <v>683</v>
-      </c>
-      <c r="C224" t="s">
-        <v>684</v>
       </c>
       <c r="D224">
         <v>74</v>
@@ -11006,13 +11050,13 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B225" t="s">
+        <v>681</v>
+      </c>
+      <c r="C225" t="s">
         <v>683</v>
-      </c>
-      <c r="C225" t="s">
-        <v>685</v>
       </c>
       <c r="D225">
         <v>90</v>
@@ -11047,13 +11091,13 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B226" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C226" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>19</v>
@@ -11085,13 +11129,13 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>685</v>
+      </c>
+      <c r="B227" t="s">
+        <v>686</v>
+      </c>
+      <c r="C227" t="s">
         <v>687</v>
-      </c>
-      <c r="B227" t="s">
-        <v>688</v>
-      </c>
-      <c r="C227" t="s">
-        <v>689</v>
       </c>
       <c r="D227">
         <v>60</v>
@@ -11126,13 +11170,13 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B228" t="s">
+        <v>686</v>
+      </c>
+      <c r="C228" t="s">
         <v>688</v>
-      </c>
-      <c r="C228" t="s">
-        <v>690</v>
       </c>
       <c r="D228">
         <v>90</v>
@@ -11158,13 +11202,13 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>689</v>
+      </c>
+      <c r="B229" t="s">
+        <v>690</v>
+      </c>
+      <c r="C229" t="s">
         <v>691</v>
-      </c>
-      <c r="B229" t="s">
-        <v>692</v>
-      </c>
-      <c r="C229" t="s">
-        <v>693</v>
       </c>
       <c r="D229">
         <v>62</v>
@@ -11199,13 +11243,13 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B230" t="s">
+        <v>690</v>
+      </c>
+      <c r="C230" t="s">
         <v>692</v>
-      </c>
-      <c r="C230" t="s">
-        <v>694</v>
       </c>
       <c r="D230">
         <v>140</v>
@@ -11222,13 +11266,13 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B231" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C231" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>87</v>
@@ -11251,13 +11295,13 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>693</v>
+      </c>
+      <c r="B232" t="s">
+        <v>694</v>
+      </c>
+      <c r="C232" t="s">
         <v>695</v>
-      </c>
-      <c r="B232" t="s">
-        <v>696</v>
-      </c>
-      <c r="C232" t="s">
-        <v>697</v>
       </c>
       <c r="D232">
         <v>64</v>
@@ -11301,13 +11345,13 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B233" t="s">
+        <v>694</v>
+      </c>
+      <c r="C233" t="s">
         <v>696</v>
-      </c>
-      <c r="C233" t="s">
-        <v>698</v>
       </c>
       <c r="D233">
         <v>74</v>
@@ -11324,13 +11368,13 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B234" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C234" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>20</v>
@@ -11344,13 +11388,13 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>698</v>
+      </c>
+      <c r="B235" t="s">
+        <v>699</v>
+      </c>
+      <c r="C235" t="s">
         <v>700</v>
-      </c>
-      <c r="B235" t="s">
-        <v>701</v>
-      </c>
-      <c r="C235" t="s">
-        <v>702</v>
       </c>
       <c r="D235">
         <v>66</v>
@@ -11394,13 +11438,13 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B236" t="s">
+        <v>699</v>
+      </c>
+      <c r="C236" t="s">
         <v>701</v>
-      </c>
-      <c r="C236" t="s">
-        <v>703</v>
       </c>
       <c r="D236">
         <v>110</v>
@@ -11444,13 +11488,13 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B237" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C237" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>563</v>
@@ -11461,13 +11505,13 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>703</v>
+      </c>
+      <c r="B238" t="s">
+        <v>704</v>
+      </c>
+      <c r="C238" t="s">
         <v>705</v>
-      </c>
-      <c r="B238" t="s">
-        <v>706</v>
-      </c>
-      <c r="C238" t="s">
-        <v>707</v>
       </c>
       <c r="D238">
         <v>66</v>
@@ -11502,13 +11546,13 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B239" t="s">
+        <v>704</v>
+      </c>
+      <c r="C239" t="s">
         <v>706</v>
-      </c>
-      <c r="C239" t="s">
-        <v>708</v>
       </c>
       <c r="D239">
         <v>76</v>
@@ -11543,16 +11587,16 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B240" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C240" t="s">
+        <v>707</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="F240" t="s">
         <v>96</v>
@@ -11561,7 +11605,7 @@
         <v>60</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I240" t="s">
         <v>96</v>
@@ -11572,13 +11616,13 @@
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B241" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C241" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D241">
         <v>80</v>
@@ -11640,13 +11684,13 @@
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B242" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C242" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D242">
         <v>90</v>
@@ -11663,13 +11707,13 @@
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B243" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C243" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>84</v>
@@ -11692,13 +11736,13 @@
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>714</v>
+      </c>
+      <c r="B244" t="s">
+        <v>715</v>
+      </c>
+      <c r="C244" t="s">
         <v>716</v>
-      </c>
-      <c r="B244" t="s">
-        <v>717</v>
-      </c>
-      <c r="C244" t="s">
-        <v>718</v>
       </c>
       <c r="D244">
         <v>90</v>
@@ -11724,13 +11768,13 @@
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B245" t="s">
+        <v>715</v>
+      </c>
+      <c r="C245" t="s">
         <v>717</v>
-      </c>
-      <c r="C245" t="s">
-        <v>719</v>
       </c>
       <c r="D245">
         <v>110</v>
@@ -11747,13 +11791,13 @@
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B246" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C246" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>84</v>
@@ -11776,13 +11820,13 @@
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B247" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C247" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D247">
         <v>72</v>
@@ -11817,13 +11861,13 @@
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B248" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C248" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D248">
         <v>72</v>
@@ -11838,7 +11882,7 @@
         <v>70</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I248" t="s">
         <v>145</v>
@@ -11847,7 +11891,7 @@
         <v>20</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="L248" t="s">
         <v>145</v>
@@ -11856,7 +11900,7 @@
         <v>120</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="O248" t="s">
         <v>145</v>
@@ -11867,13 +11911,13 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B249" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C249" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>9</v>
@@ -11887,13 +11931,13 @@
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>767</v>
+      </c>
+      <c r="B250" t="s">
+        <v>768</v>
+      </c>
+      <c r="C250" t="s">
         <v>769</v>
-      </c>
-      <c r="B250" t="s">
-        <v>770</v>
-      </c>
-      <c r="C250" t="s">
-        <v>771</v>
       </c>
       <c r="D250">
         <v>70</v>
@@ -11928,13 +11972,13 @@
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B251" t="s">
+        <v>768</v>
+      </c>
+      <c r="C251" t="s">
         <v>770</v>
-      </c>
-      <c r="C251" t="s">
-        <v>772</v>
       </c>
       <c r="D251">
         <v>64</v>
@@ -11960,13 +12004,13 @@
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B252" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C252" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>563</v>
@@ -11980,13 +12024,13 @@
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>772</v>
+      </c>
+      <c r="B253" t="s">
+        <v>773</v>
+      </c>
+      <c r="C253" t="s">
         <v>774</v>
-      </c>
-      <c r="B253" t="s">
-        <v>775</v>
-      </c>
-      <c r="C253" t="s">
-        <v>776</v>
       </c>
       <c r="D253">
         <v>70</v>
@@ -12001,7 +12045,7 @@
         <v>180</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I253" t="s">
         <v>200</v>
@@ -12021,13 +12065,13 @@
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B254" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C254" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D254">
         <v>70</v>
@@ -12044,13 +12088,13 @@
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B255" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C255" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>21</v>
@@ -12064,13 +12108,13 @@
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>778</v>
+      </c>
+      <c r="B256" t="s">
+        <v>779</v>
+      </c>
+      <c r="C256" t="s">
         <v>780</v>
-      </c>
-      <c r="B256" t="s">
-        <v>781</v>
-      </c>
-      <c r="C256" t="s">
-        <v>782</v>
       </c>
       <c r="D256">
         <v>150</v>
@@ -12087,13 +12131,13 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B257" t="s">
+        <v>779</v>
+      </c>
+      <c r="C257" t="s">
         <v>781</v>
-      </c>
-      <c r="C257" t="s">
-        <v>783</v>
       </c>
       <c r="D257">
         <v>72</v>
@@ -12137,13 +12181,13 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B258" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C258" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>16</v>
@@ -12403,10 +12447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92:N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -12415,766 +12459,4879 @@
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1" t="s">
+        <v>912</v>
+      </c>
+      <c r="F1" t="s">
+        <v>913</v>
+      </c>
+      <c r="G1" t="s">
+        <v>914</v>
+      </c>
+      <c r="H1" t="s">
+        <v>915</v>
+      </c>
+      <c r="I1" t="s">
+        <v>916</v>
+      </c>
+      <c r="J1" t="s">
+        <v>917</v>
+      </c>
+      <c r="K1" t="s">
+        <v>918</v>
+      </c>
+      <c r="L1" t="s">
+        <v>919</v>
+      </c>
+      <c r="M1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>1743</v>
+      </c>
+      <c r="E2">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>460</v>
+      </c>
+      <c r="F2">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>475</v>
+      </c>
+      <c r="G2">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>4275</v>
+      </c>
+      <c r="H2">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>1180</v>
+      </c>
+      <c r="I2">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>1189</v>
+      </c>
+      <c r="J2">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>5070</v>
+      </c>
+      <c r="K2">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>1315</v>
+      </c>
+      <c r="L2">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M2,"_",$N2),stats_base!$C:$C,0))</f>
+        <v>1334</v>
+      </c>
+      <c r="M2" t="s">
+        <v>923</v>
+      </c>
+      <c r="N2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>1086</v>
+      </c>
+      <c r="E3">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>696</v>
+      </c>
+      <c r="F3">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>328</v>
+      </c>
+      <c r="G3">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>2730</v>
+      </c>
+      <c r="H3">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>1680</v>
+      </c>
+      <c r="I3">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>874</v>
+      </c>
+      <c r="J3">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>3205</v>
+      </c>
+      <c r="K3">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>1910</v>
+      </c>
+      <c r="L3">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M3,"_",$N3),stats_base!$C:$C,0))</f>
+        <v>979</v>
+      </c>
+      <c r="M3" t="s">
+        <v>923</v>
+      </c>
+      <c r="N3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>1086</v>
+      </c>
+      <c r="E4">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>696</v>
+      </c>
+      <c r="F4">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>328</v>
+      </c>
+      <c r="G4">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>2730</v>
+      </c>
+      <c r="H4">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>1680</v>
+      </c>
+      <c r="I4">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>874</v>
+      </c>
+      <c r="J4">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>3205</v>
+      </c>
+      <c r="K4">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>1910</v>
+      </c>
+      <c r="L4">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M4,"_",$N4),stats_base!$C:$C,0))</f>
+        <v>979</v>
+      </c>
+      <c r="M4" t="s">
+        <v>923</v>
+      </c>
+      <c r="N4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>1486</v>
+      </c>
+      <c r="E5">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>637</v>
+      </c>
+      <c r="F5">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>415</v>
+      </c>
+      <c r="G5">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>3688</v>
+      </c>
+      <c r="H5">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>1555</v>
+      </c>
+      <c r="I5">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>1039</v>
+      </c>
+      <c r="J5">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>4343</v>
+      </c>
+      <c r="K5">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>1750</v>
+      </c>
+      <c r="L5">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M5,"_",$N5),stats_base!$C:$C,0))</f>
+        <v>1174</v>
+      </c>
+      <c r="M5" t="s">
+        <v>923</v>
+      </c>
+      <c r="N5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B6" t="s">
+        <v>909</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>1486</v>
+      </c>
+      <c r="E6">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>637</v>
+      </c>
+      <c r="F6">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>415</v>
+      </c>
+      <c r="G6">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>3688</v>
+      </c>
+      <c r="H6">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>1555</v>
+      </c>
+      <c r="I6">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>1039</v>
+      </c>
+      <c r="J6">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>4343</v>
+      </c>
+      <c r="K6">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>1750</v>
+      </c>
+      <c r="L6">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M6,"_",$N6),stats_base!$C:$C,0))</f>
+        <v>1174</v>
+      </c>
+      <c r="M6" t="s">
+        <v>923</v>
+      </c>
+      <c r="N6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B7" t="s">
+        <v>909</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>1486</v>
+      </c>
+      <c r="E7">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>637</v>
+      </c>
+      <c r="F7">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>415</v>
+      </c>
+      <c r="G7">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>3688</v>
+      </c>
+      <c r="H7">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>1555</v>
+      </c>
+      <c r="I7">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>1039</v>
+      </c>
+      <c r="J7">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>4343</v>
+      </c>
+      <c r="K7">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>1750</v>
+      </c>
+      <c r="L7">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M7,"_",$N7),stats_base!$C:$C,0))</f>
+        <v>1174</v>
+      </c>
+      <c r="M7" t="s">
+        <v>923</v>
+      </c>
+      <c r="N7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>1486</v>
+      </c>
+      <c r="E8">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>637</v>
+      </c>
+      <c r="F8">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>415</v>
+      </c>
+      <c r="G8">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>3688</v>
+      </c>
+      <c r="H8">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>1555</v>
+      </c>
+      <c r="I8">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>1039</v>
+      </c>
+      <c r="J8">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>4343</v>
+      </c>
+      <c r="K8">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>1750</v>
+      </c>
+      <c r="L8">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M8,"_",$N8),stats_base!$C:$C,0))</f>
+        <v>1174</v>
+      </c>
+      <c r="M8" t="s">
+        <v>923</v>
+      </c>
+      <c r="N8" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B9" t="s">
+        <v>909</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1451</v>
+      </c>
+      <c r="E9" s="2">
+        <v>622</v>
+      </c>
+      <c r="F9" s="2">
+        <v>380</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3617</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1516</v>
+      </c>
+      <c r="I9" s="2">
+        <v>950</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4272</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1085</v>
+      </c>
+      <c r="M9" t="s">
+        <v>924</v>
+      </c>
+      <c r="N9" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>818</v>
+      </c>
+      <c r="B10" t="s">
+        <v>909</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>1456</v>
+      </c>
+      <c r="E10">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>333</v>
+      </c>
+      <c r="F10">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>347</v>
+      </c>
+      <c r="G10">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>3808</v>
+      </c>
+      <c r="H10">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>873</v>
+      </c>
+      <c r="I10">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>881</v>
+      </c>
+      <c r="J10">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>4603</v>
+      </c>
+      <c r="K10">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>1008</v>
+      </c>
+      <c r="L10">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M10,"_",$N10),stats_base!$C:$C,0))</f>
+        <v>1026</v>
+      </c>
+      <c r="M10" t="s">
+        <v>925</v>
+      </c>
+      <c r="N10" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B11" t="s">
+        <v>910</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1076</v>
+      </c>
+      <c r="E11" s="2">
+        <v>377</v>
+      </c>
+      <c r="F11" s="2">
+        <v>236</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2762</v>
+      </c>
+      <c r="H11" s="2">
+        <v>983</v>
+      </c>
+      <c r="I11" s="2">
+        <v>632</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3302</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1128</v>
+      </c>
+      <c r="L11" s="2">
+        <v>742</v>
+      </c>
+      <c r="M11" t="s">
+        <v>925</v>
+      </c>
+      <c r="N11" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>820</v>
+      </c>
+      <c r="B12" t="s">
+        <v>910</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>882</v>
+      </c>
+      <c r="E12">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>511</v>
+      </c>
+      <c r="F12">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>199</v>
+      </c>
+      <c r="G12">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>2310</v>
+      </c>
+      <c r="H12">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>1279</v>
+      </c>
+      <c r="I12">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>529</v>
+      </c>
+      <c r="J12">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>2785</v>
+      </c>
+      <c r="K12">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>1509</v>
+      </c>
+      <c r="L12">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M12,"_",$N12),stats_base!$C:$C,0))</f>
+        <v>634</v>
+      </c>
+      <c r="M12" t="s">
+        <v>925</v>
+      </c>
+      <c r="N12" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>821</v>
+      </c>
+      <c r="B13" t="s">
+        <v>909</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>1231</v>
+      </c>
+      <c r="E13">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>467</v>
+      </c>
+      <c r="F13">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>270</v>
+      </c>
+      <c r="G13">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>3217</v>
+      </c>
+      <c r="H13">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>1169</v>
+      </c>
+      <c r="I13">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>678</v>
+      </c>
+      <c r="J13">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>3872</v>
+      </c>
+      <c r="K13">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>1364</v>
+      </c>
+      <c r="L13">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M13,"_",$N13),stats_base!$C:$C,0))</f>
+        <v>813</v>
+      </c>
+      <c r="M13" t="s">
+        <v>925</v>
+      </c>
+      <c r="N13" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>822</v>
+      </c>
+      <c r="B14" t="s">
+        <v>910</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1049</v>
+      </c>
+      <c r="E14" s="2">
+        <v>360</v>
+      </c>
+      <c r="F14" s="2">
+        <v>219</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2699</v>
+      </c>
+      <c r="H14" s="2">
+        <v>930</v>
+      </c>
+      <c r="I14" s="2">
+        <v>579</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3239</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1075</v>
+      </c>
+      <c r="L14" s="2">
+        <v>689</v>
+      </c>
+      <c r="M14" t="s">
+        <v>925</v>
+      </c>
+      <c r="N14" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>823</v>
+      </c>
+      <c r="B15" t="s">
+        <v>909</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>882</v>
+      </c>
+      <c r="E15">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>511</v>
+      </c>
+      <c r="F15">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>199</v>
+      </c>
+      <c r="G15">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>2310</v>
+      </c>
+      <c r="H15">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>1279</v>
+      </c>
+      <c r="I15">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>529</v>
+      </c>
+      <c r="J15">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>2785</v>
+      </c>
+      <c r="K15">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>1509</v>
+      </c>
+      <c r="L15">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M15,"_",$N15),stats_base!$C:$C,0))</f>
+        <v>634</v>
+      </c>
+      <c r="M15" t="s">
+        <v>925</v>
+      </c>
+      <c r="N15" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>824</v>
+      </c>
+      <c r="B16" t="s">
+        <v>909</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1439</v>
+      </c>
+      <c r="E16" s="2">
+        <v>315</v>
+      </c>
+      <c r="F16" s="2">
+        <v>323</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3755</v>
+      </c>
+      <c r="H16" s="2">
+        <v>819</v>
+      </c>
+      <c r="I16" s="2">
+        <v>821</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4550</v>
+      </c>
+      <c r="K16" s="2">
+        <v>954</v>
+      </c>
+      <c r="L16" s="2">
+        <v>966</v>
+      </c>
+      <c r="M16" t="s">
+        <v>925</v>
+      </c>
+      <c r="N16" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>825</v>
+      </c>
+      <c r="B17" t="s">
+        <v>909</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>882</v>
+      </c>
+      <c r="E17">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>511</v>
+      </c>
+      <c r="F17">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>199</v>
+      </c>
+      <c r="G17">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>2310</v>
+      </c>
+      <c r="H17">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>1279</v>
+      </c>
+      <c r="I17">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>529</v>
+      </c>
+      <c r="J17">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>2785</v>
+      </c>
+      <c r="K17">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>1509</v>
+      </c>
+      <c r="L17">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M17,"_",$N17),stats_base!$C:$C,0))</f>
+        <v>634</v>
+      </c>
+      <c r="M17" t="s">
+        <v>925</v>
+      </c>
+      <c r="N17" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>826</v>
+      </c>
+      <c r="B18" t="s">
+        <v>909</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>882</v>
+      </c>
+      <c r="E18">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>511</v>
+      </c>
+      <c r="F18">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>199</v>
+      </c>
+      <c r="G18">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>2310</v>
+      </c>
+      <c r="H18">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>1279</v>
+      </c>
+      <c r="I18">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>529</v>
+      </c>
+      <c r="J18">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>2785</v>
+      </c>
+      <c r="K18">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>1509</v>
+      </c>
+      <c r="L18">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M18,"_",$N18),stats_base!$C:$C,0))</f>
+        <v>634</v>
+      </c>
+      <c r="M18" t="s">
+        <v>925</v>
+      </c>
+      <c r="N18" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>827</v>
+      </c>
+      <c r="B19" t="s">
+        <v>910</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>882</v>
+      </c>
+      <c r="E19">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>511</v>
+      </c>
+      <c r="F19">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>199</v>
+      </c>
+      <c r="G19">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>2310</v>
+      </c>
+      <c r="H19">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>1279</v>
+      </c>
+      <c r="I19">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>529</v>
+      </c>
+      <c r="J19">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>2785</v>
+      </c>
+      <c r="K19">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>1509</v>
+      </c>
+      <c r="L19">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M19,"_",$N19),stats_base!$C:$C,0))</f>
+        <v>634</v>
+      </c>
+      <c r="M19" t="s">
+        <v>925</v>
+      </c>
+      <c r="N19" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>828</v>
+      </c>
+      <c r="B20" t="s">
+        <v>910</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>1049</v>
+      </c>
+      <c r="E20">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>360</v>
+      </c>
+      <c r="F20">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>219</v>
+      </c>
+      <c r="G20">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>2699</v>
+      </c>
+      <c r="H20">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>930</v>
+      </c>
+      <c r="I20">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>579</v>
+      </c>
+      <c r="J20">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>3239</v>
+      </c>
+      <c r="K20">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>1075</v>
+      </c>
+      <c r="L20">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M20,"_",$N20),stats_base!$C:$C,0))</f>
+        <v>689</v>
+      </c>
+      <c r="M20" t="s">
+        <v>925</v>
+      </c>
+      <c r="N20" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>829</v>
+      </c>
+      <c r="B21" t="s">
+        <v>909</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>1231</v>
+      </c>
+      <c r="E21">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>467</v>
+      </c>
+      <c r="F21">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>270</v>
+      </c>
+      <c r="G21">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>3217</v>
+      </c>
+      <c r="H21">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>1169</v>
+      </c>
+      <c r="I21">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>678</v>
+      </c>
+      <c r="J21">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>3872</v>
+      </c>
+      <c r="K21">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>1364</v>
+      </c>
+      <c r="L21">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M21,"_",$N21),stats_base!$C:$C,0))</f>
+        <v>813</v>
+      </c>
+      <c r="M21" t="s">
+        <v>925</v>
+      </c>
+      <c r="N21" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>830</v>
+      </c>
+      <c r="B22" t="s">
+        <v>910</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>1049</v>
+      </c>
+      <c r="E22">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>360</v>
+      </c>
+      <c r="F22">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>219</v>
+      </c>
+      <c r="G22">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>2699</v>
+      </c>
+      <c r="H22">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>930</v>
+      </c>
+      <c r="I22">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>579</v>
+      </c>
+      <c r="J22">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>3239</v>
+      </c>
+      <c r="K22">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>1075</v>
+      </c>
+      <c r="L22">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M22,"_",$N22),stats_base!$C:$C,0))</f>
+        <v>689</v>
+      </c>
+      <c r="M22" t="s">
+        <v>925</v>
+      </c>
+      <c r="N22" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>831</v>
+      </c>
+      <c r="B23" t="s">
+        <v>910</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>882</v>
+      </c>
+      <c r="E23">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>511</v>
+      </c>
+      <c r="F23">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>199</v>
+      </c>
+      <c r="G23">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>2310</v>
+      </c>
+      <c r="H23">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>1279</v>
+      </c>
+      <c r="I23">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>529</v>
+      </c>
+      <c r="J23">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>2785</v>
+      </c>
+      <c r="K23">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>1509</v>
+      </c>
+      <c r="L23">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M23,"_",$N23),stats_base!$C:$C,0))</f>
+        <v>634</v>
+      </c>
+      <c r="M23" t="s">
+        <v>925</v>
+      </c>
+      <c r="N23" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>832</v>
+      </c>
+      <c r="B24" t="s">
+        <v>910</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>882</v>
+      </c>
+      <c r="E24">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>511</v>
+      </c>
+      <c r="F24">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>199</v>
+      </c>
+      <c r="G24">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>2310</v>
+      </c>
+      <c r="H24">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>1279</v>
+      </c>
+      <c r="I24">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>529</v>
+      </c>
+      <c r="J24">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>2785</v>
+      </c>
+      <c r="K24">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>1509</v>
+      </c>
+      <c r="L24">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M24,"_",$N24),stats_base!$C:$C,0))</f>
+        <v>634</v>
+      </c>
+      <c r="M24" t="s">
+        <v>925</v>
+      </c>
+      <c r="N24" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>833</v>
+      </c>
+      <c r="B25" t="s">
+        <v>909</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>1456</v>
+      </c>
+      <c r="E25">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>333</v>
+      </c>
+      <c r="F25">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>347</v>
+      </c>
+      <c r="G25">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>3808</v>
+      </c>
+      <c r="H25">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>873</v>
+      </c>
+      <c r="I25">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>881</v>
+      </c>
+      <c r="J25">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>4603</v>
+      </c>
+      <c r="K25">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>1008</v>
+      </c>
+      <c r="L25">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M25,"_",$N25),stats_base!$C:$C,0))</f>
+        <v>1026</v>
+      </c>
+      <c r="M25" t="s">
+        <v>925</v>
+      </c>
+      <c r="N25" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>834</v>
+      </c>
+      <c r="B26" t="s">
+        <v>909</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1249</v>
+      </c>
+      <c r="E26" s="2">
+        <v>490</v>
+      </c>
+      <c r="F26" s="2">
+        <v>293</v>
+      </c>
+      <c r="G26" s="2">
+        <v>3271</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1228</v>
+      </c>
+      <c r="I26" s="2">
+        <v>737</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3926</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1423</v>
+      </c>
+      <c r="L26" s="2">
+        <v>872</v>
+      </c>
+      <c r="M26" t="s">
+        <v>925</v>
+      </c>
+      <c r="N26" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>835</v>
+      </c>
+      <c r="B27" t="s">
+        <v>910</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2">
+        <v>899</v>
+      </c>
+      <c r="E27" s="2">
+        <v>534</v>
+      </c>
+      <c r="F27" s="2">
+        <v>216</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2363</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1338</v>
+      </c>
+      <c r="I27" s="2">
+        <v>582</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2838</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L27" s="2">
+        <v>687</v>
+      </c>
+      <c r="M27" t="s">
+        <v>925</v>
+      </c>
+      <c r="N27" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>836</v>
+      </c>
+      <c r="B28" t="s">
+        <v>909</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2">
+        <v>917</v>
+      </c>
+      <c r="E28" s="2">
+        <v>534</v>
+      </c>
+      <c r="F28" s="2">
+        <v>216</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2417</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1338</v>
+      </c>
+      <c r="I28" s="2">
+        <v>582</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2892</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L28" s="2">
+        <v>687</v>
+      </c>
+      <c r="M28" t="s">
+        <v>925</v>
+      </c>
+      <c r="N28" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>837</v>
+      </c>
+      <c r="B29" t="s">
+        <v>910</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2119</v>
+      </c>
+      <c r="E29" s="2">
+        <v>405</v>
+      </c>
+      <c r="F29" s="2">
+        <v>259</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3841</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1047</v>
+      </c>
+      <c r="I29" s="2">
+        <v>691</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4381</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1192</v>
+      </c>
+      <c r="L29" s="2">
+        <v>801</v>
+      </c>
+      <c r="M29" t="s">
+        <v>925</v>
+      </c>
+      <c r="N29" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>838</v>
+      </c>
+      <c r="B30" t="s">
+        <v>909</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1258</v>
+      </c>
+      <c r="E30" s="2">
+        <v>540</v>
+      </c>
+      <c r="F30" s="2">
+        <v>296</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3298</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1380</v>
+      </c>
+      <c r="I30" s="2">
+        <v>746</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3953</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1575</v>
+      </c>
+      <c r="L30" s="2">
+        <v>881</v>
+      </c>
+      <c r="M30" t="s">
+        <v>925</v>
+      </c>
+      <c r="N30" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>920</v>
+      </c>
+      <c r="B31" t="s">
+        <v>910</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2">
+        <v>937</v>
+      </c>
+      <c r="E31" s="2">
+        <v>567</v>
+      </c>
+      <c r="F31" s="2">
+        <v>253</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2437</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1407</v>
+      </c>
+      <c r="I31" s="2">
+        <v>685</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2912</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1637</v>
+      </c>
+      <c r="L31" s="2">
+        <v>790</v>
+      </c>
+      <c r="M31" t="s">
+        <v>925</v>
+      </c>
+      <c r="N31" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>839</v>
+      </c>
+      <c r="B32" t="s">
+        <v>909</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <f>INDEX(stats_base!D:D,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>882</v>
+      </c>
+      <c r="E32">
+        <f>INDEX(stats_base!E:E,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>511</v>
+      </c>
+      <c r="F32">
+        <f>INDEX(stats_base!F:F,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>199</v>
+      </c>
+      <c r="G32">
+        <f>INDEX(stats_base!G:G,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>2310</v>
+      </c>
+      <c r="H32">
+        <f>INDEX(stats_base!H:H,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>1279</v>
+      </c>
+      <c r="I32">
+        <f>INDEX(stats_base!I:I,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>529</v>
+      </c>
+      <c r="J32">
+        <f>INDEX(stats_base!J:J,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>2785</v>
+      </c>
+      <c r="K32">
+        <f>INDEX(stats_base!K:K,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>1509</v>
+      </c>
+      <c r="L32">
+        <f>INDEX(stats_base!L:L,MATCH(CONCATENATE($M32,"_",$N32),stats_base!$C:$C,0))</f>
+        <v>634</v>
+      </c>
+      <c r="M32" t="s">
+        <v>925</v>
+      </c>
+      <c r="N32" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>840</v>
+      </c>
+      <c r="B33" t="s">
+        <v>909</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2">
+        <v>899</v>
+      </c>
+      <c r="E33" s="2">
+        <v>552</v>
+      </c>
+      <c r="F33" s="2">
+        <v>216</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2363</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1392</v>
+      </c>
+      <c r="I33" s="2">
+        <v>582</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2838</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1622</v>
+      </c>
+      <c r="L33" s="2">
+        <v>687</v>
+      </c>
+      <c r="M33" t="s">
+        <v>925</v>
+      </c>
+      <c r="N33" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>841</v>
+      </c>
+      <c r="B34" t="s">
+        <v>910</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34" s="2">
+        <v>917</v>
+      </c>
+      <c r="E34" s="2">
+        <v>552</v>
+      </c>
+      <c r="F34" s="2">
+        <v>216</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2417</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1392</v>
+      </c>
+      <c r="I34" s="2">
+        <v>582</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2892</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1622</v>
+      </c>
+      <c r="L34" s="2">
+        <v>687</v>
+      </c>
+      <c r="M34" t="s">
+        <v>925</v>
+      </c>
+      <c r="N34" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>842</v>
+      </c>
+      <c r="B35" t="s">
+        <v>909</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2">
+        <v>917</v>
+      </c>
+      <c r="E35" s="2">
+        <v>552</v>
+      </c>
+      <c r="F35" s="2">
+        <v>216</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2417</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1392</v>
+      </c>
+      <c r="I35" s="2">
+        <v>582</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2892</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1622</v>
+      </c>
+      <c r="L35" s="2">
+        <v>687</v>
+      </c>
+      <c r="M35" t="s">
+        <v>925</v>
+      </c>
+      <c r="N35" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>843</v>
+      </c>
+      <c r="B36" t="s">
+        <v>909</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1258</v>
+      </c>
+      <c r="E36" s="2">
+        <v>511</v>
+      </c>
+      <c r="F36" s="2">
+        <v>296</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3298</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1291</v>
+      </c>
+      <c r="I36" s="2">
+        <v>746</v>
+      </c>
+      <c r="J36" s="2">
+        <v>3953</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1486</v>
+      </c>
+      <c r="L36" s="2">
+        <v>881</v>
+      </c>
+      <c r="M36" t="s">
+        <v>925</v>
+      </c>
+      <c r="N36" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>844</v>
+      </c>
+      <c r="B37" t="s">
+        <v>910</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1258</v>
+      </c>
+      <c r="E37" s="2">
+        <v>511</v>
+      </c>
+      <c r="F37" s="2">
+        <v>296</v>
+      </c>
+      <c r="G37" s="2">
+        <v>3298</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1291</v>
+      </c>
+      <c r="I37" s="2">
+        <v>746</v>
+      </c>
+      <c r="J37" s="2">
+        <v>3953</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1486</v>
+      </c>
+      <c r="L37" s="2">
+        <v>881</v>
+      </c>
+      <c r="M37" t="s">
+        <v>925</v>
+      </c>
+      <c r="N37" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>845</v>
+      </c>
+      <c r="B38" t="s">
+        <v>910</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2">
+        <v>539</v>
+      </c>
+      <c r="E38" s="2">
+        <v>325</v>
+      </c>
+      <c r="F38" s="2">
+        <v>134</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1415</v>
+      </c>
+      <c r="H38" s="2">
+        <v>817</v>
+      </c>
+      <c r="I38" s="2">
+        <v>362</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1695</v>
+      </c>
+      <c r="K38" s="2">
+        <v>952</v>
+      </c>
+      <c r="L38" s="2">
+        <v>422</v>
+      </c>
+      <c r="M38" t="s">
+        <v>927</v>
+      </c>
+      <c r="N38" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>846</v>
+      </c>
+      <c r="B39" t="s">
+        <v>909</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2">
+        <v>703</v>
+      </c>
+      <c r="E39" s="2">
+        <v>419</v>
+      </c>
+      <c r="F39" s="2">
+        <v>169</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1843</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1049</v>
+      </c>
+      <c r="I39" s="2">
+        <v>457</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2208</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1224</v>
+      </c>
+      <c r="L39" s="2">
+        <v>537</v>
+      </c>
+      <c r="M39" t="s">
+        <v>927</v>
+      </c>
+      <c r="N39" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>847</v>
+      </c>
+      <c r="B40" t="s">
+        <v>909</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1456</v>
+      </c>
+      <c r="E40" s="2">
+        <v>333</v>
+      </c>
+      <c r="F40" s="2">
+        <v>348</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3808</v>
+      </c>
+      <c r="H40" s="2">
+        <v>873</v>
+      </c>
+      <c r="I40" s="2">
+        <v>882</v>
+      </c>
+      <c r="J40" s="2">
+        <v>4603</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1008</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1027</v>
+      </c>
+      <c r="M40" t="s">
+        <v>927</v>
+      </c>
+      <c r="N40" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>848</v>
+      </c>
+      <c r="B41" t="s">
+        <v>910</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1076</v>
+      </c>
+      <c r="E41" s="2">
+        <v>377</v>
+      </c>
+      <c r="F41" s="2">
+        <v>236</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2762</v>
+      </c>
+      <c r="H41" s="2">
+        <v>983</v>
+      </c>
+      <c r="I41" s="2">
+        <v>632</v>
+      </c>
+      <c r="J41" s="2">
+        <v>3302</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1128</v>
+      </c>
+      <c r="L41" s="2">
+        <v>742</v>
+      </c>
+      <c r="M41" t="s">
+        <v>927</v>
+      </c>
+      <c r="N41" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>849</v>
+      </c>
+      <c r="B42" t="s">
+        <v>910</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2">
+        <v>899</v>
+      </c>
+      <c r="E42" s="2">
+        <v>534</v>
+      </c>
+      <c r="F42" s="2">
+        <v>216</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2363</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1338</v>
+      </c>
+      <c r="I42" s="2">
+        <v>582</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2838</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L42" s="2">
+        <v>687</v>
+      </c>
+      <c r="M42" t="s">
+        <v>927</v>
+      </c>
+      <c r="N42" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>850</v>
+      </c>
+      <c r="B43" t="s">
+        <v>909</v>
+      </c>
+      <c r="C43">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2">
+        <v>899</v>
+      </c>
+      <c r="E43" s="2">
+        <v>534</v>
+      </c>
+      <c r="F43" s="2">
+        <v>216</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2363</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1338</v>
+      </c>
+      <c r="I43" s="2">
+        <v>582</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2838</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1568</v>
+      </c>
+      <c r="L43" s="2">
+        <v>687</v>
+      </c>
+      <c r="M43" t="s">
+        <v>927</v>
+      </c>
+      <c r="N43" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>851</v>
+      </c>
+      <c r="B44" t="s">
+        <v>909</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2">
+        <v>635</v>
+      </c>
+      <c r="E44" s="2">
+        <v>120</v>
+      </c>
+      <c r="F44" s="2">
+        <v>111</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1643</v>
+      </c>
+      <c r="H44" s="2">
+        <v>300</v>
+      </c>
+      <c r="I44" s="2">
+        <v>279</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2003</v>
+      </c>
+      <c r="K44" s="2">
+        <v>360</v>
+      </c>
+      <c r="L44" s="2">
+        <v>344</v>
+      </c>
+      <c r="M44" t="s">
+        <v>926</v>
+      </c>
+      <c r="N44" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>852</v>
+      </c>
+      <c r="B45" t="s">
+        <v>910</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>443</v>
+      </c>
+      <c r="E45" s="2">
+        <v>139</v>
+      </c>
+      <c r="F45" s="2">
+        <v>75</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1145</v>
+      </c>
+      <c r="H45" s="2">
+        <v>349</v>
+      </c>
+      <c r="I45" s="2">
+        <v>189</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1390</v>
+      </c>
+      <c r="K45" s="2">
+        <v>414</v>
+      </c>
+      <c r="L45" s="2">
+        <v>239</v>
+      </c>
+      <c r="M45" t="s">
+        <v>926</v>
+      </c>
+      <c r="N45" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>853</v>
+      </c>
+      <c r="B46" t="s">
+        <v>910</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2">
+        <v>635</v>
+      </c>
+      <c r="E46" s="2">
+        <v>120</v>
+      </c>
+      <c r="F46" s="2">
+        <v>111</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1643</v>
+      </c>
+      <c r="H46" s="2">
+        <v>300</v>
+      </c>
+      <c r="I46" s="2">
+        <v>279</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2003</v>
+      </c>
+      <c r="K46" s="2">
+        <v>360</v>
+      </c>
+      <c r="L46" s="2">
+        <v>344</v>
+      </c>
+      <c r="M46" t="s">
+        <v>926</v>
+      </c>
+      <c r="N46" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>854</v>
+      </c>
+      <c r="B47" t="s">
+        <v>910</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
+        <v>824</v>
+      </c>
+      <c r="E47" s="2">
+        <v>156</v>
+      </c>
+      <c r="F47" s="2">
+        <v>144</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2132</v>
+      </c>
+      <c r="H47" s="2">
+        <v>390</v>
+      </c>
+      <c r="I47" s="2">
+        <v>360</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2602</v>
+      </c>
+      <c r="K47" s="2">
+        <v>470</v>
+      </c>
+      <c r="L47" s="2">
+        <v>445</v>
+      </c>
+      <c r="M47" t="s">
+        <v>926</v>
+      </c>
+      <c r="N47" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>855</v>
+      </c>
+      <c r="B48" t="s">
+        <v>909</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
+        <v>378</v>
+      </c>
+      <c r="E48" s="2">
+        <v>201</v>
+      </c>
+      <c r="F48" s="2">
+        <v>67</v>
+      </c>
+      <c r="G48" s="2">
+        <v>978</v>
+      </c>
+      <c r="H48" s="2">
+        <v>501</v>
+      </c>
+      <c r="I48" s="2">
+        <v>169</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1193</v>
+      </c>
+      <c r="K48" s="2">
+        <v>606</v>
+      </c>
+      <c r="L48" s="2">
+        <v>214</v>
+      </c>
+      <c r="M48" t="s">
+        <v>926</v>
+      </c>
+      <c r="N48" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>856</v>
+      </c>
+      <c r="B49" t="s">
+        <v>909</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
+        <v>386</v>
+      </c>
+      <c r="E49" s="2">
+        <v>212</v>
+      </c>
+      <c r="F49" s="2">
+        <v>76</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H49" s="2">
+        <v>530</v>
+      </c>
+      <c r="I49" s="2">
+        <v>196</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K49" s="2">
+        <v>635</v>
+      </c>
+      <c r="L49" s="2">
+        <v>241</v>
+      </c>
+      <c r="M49" t="s">
+        <v>926</v>
+      </c>
+      <c r="N49" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>857</v>
+      </c>
+      <c r="B50" t="s">
+        <v>909</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50" s="2">
+        <v>493</v>
+      </c>
+      <c r="E50" s="2">
+        <v>263</v>
+      </c>
+      <c r="F50" s="2">
+        <v>87</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1273</v>
+      </c>
+      <c r="H50" s="2">
+        <v>659</v>
+      </c>
+      <c r="I50" s="2">
+        <v>219</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1553</v>
+      </c>
+      <c r="K50" s="2">
+        <v>794</v>
+      </c>
+      <c r="L50" s="2">
+        <v>279</v>
+      </c>
+      <c r="M50" t="s">
+        <v>926</v>
+      </c>
+      <c r="N50" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>858</v>
+      </c>
+      <c r="B51" t="s">
+        <v>909</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2">
+        <v>378</v>
+      </c>
+      <c r="E51" s="2">
+        <v>201</v>
+      </c>
+      <c r="F51" s="2">
+        <v>67</v>
+      </c>
+      <c r="G51" s="2">
+        <v>978</v>
+      </c>
+      <c r="H51" s="2">
+        <v>501</v>
+      </c>
+      <c r="I51" s="2">
+        <v>169</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1193</v>
+      </c>
+      <c r="K51" s="2">
+        <v>606</v>
+      </c>
+      <c r="L51" s="2">
+        <v>214</v>
+      </c>
+      <c r="M51" t="s">
+        <v>926</v>
+      </c>
+      <c r="N51" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>859</v>
+      </c>
+      <c r="B52" t="s">
+        <v>909</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2">
+        <v>378</v>
+      </c>
+      <c r="E52" s="2">
+        <v>201</v>
+      </c>
+      <c r="F52" s="2">
+        <v>67</v>
+      </c>
+      <c r="G52" s="2">
+        <v>978</v>
+      </c>
+      <c r="H52" s="2">
+        <v>501</v>
+      </c>
+      <c r="I52" s="2">
+        <v>169</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1193</v>
+      </c>
+      <c r="K52" s="2">
+        <v>606</v>
+      </c>
+      <c r="L52" s="2">
+        <v>214</v>
+      </c>
+      <c r="M52" t="s">
+        <v>926</v>
+      </c>
+      <c r="N52" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>860</v>
+      </c>
+      <c r="B53" t="s">
+        <v>909</v>
+      </c>
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2">
+        <v>386</v>
+      </c>
+      <c r="E53" s="2">
+        <v>212</v>
+      </c>
+      <c r="F53" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H53" s="2">
+        <v>530</v>
+      </c>
+      <c r="I53" s="2">
+        <v>196</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K53" s="2">
+        <v>635</v>
+      </c>
+      <c r="L53" s="2">
+        <v>241</v>
+      </c>
+      <c r="M53" t="s">
+        <v>926</v>
+      </c>
+      <c r="N53" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>861</v>
+      </c>
+      <c r="B54" t="s">
+        <v>909</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2">
+        <v>386</v>
+      </c>
+      <c r="E54" s="2">
+        <v>212</v>
+      </c>
+      <c r="F54" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H54" s="2">
+        <v>530</v>
+      </c>
+      <c r="I54" s="2">
+        <v>196</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K54" s="2">
+        <v>635</v>
+      </c>
+      <c r="L54" s="2">
+        <v>241</v>
+      </c>
+      <c r="M54" t="s">
+        <v>926</v>
+      </c>
+      <c r="N54" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>862</v>
+      </c>
+      <c r="B55" t="s">
+        <v>909</v>
+      </c>
+      <c r="C55">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2">
+        <v>386</v>
+      </c>
+      <c r="E55" s="2">
+        <v>212</v>
+      </c>
+      <c r="F55" s="2">
+        <v>76</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H55" s="2">
+        <v>530</v>
+      </c>
+      <c r="I55" s="2">
+        <v>196</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K55" s="2">
+        <v>635</v>
+      </c>
+      <c r="L55" s="2">
+        <v>241</v>
+      </c>
+      <c r="M55" t="s">
+        <v>926</v>
+      </c>
+      <c r="N55" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>863</v>
+      </c>
+      <c r="B56" t="s">
+        <v>909</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2">
+        <v>395</v>
+      </c>
+      <c r="E56" s="2">
+        <v>224</v>
+      </c>
+      <c r="F56" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1031</v>
+      </c>
+      <c r="H56" s="2">
+        <v>560</v>
+      </c>
+      <c r="I56" s="2">
+        <v>222</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K56" s="2">
+        <v>665</v>
+      </c>
+      <c r="L56" s="2">
+        <v>267</v>
+      </c>
+      <c r="M56" t="s">
+        <v>926</v>
+      </c>
+      <c r="N56" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>864</v>
+      </c>
+      <c r="B57" t="s">
+        <v>909</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1097</v>
+      </c>
+      <c r="E57" s="2">
+        <v>229</v>
+      </c>
+      <c r="F57" s="2">
+        <v>222</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2855</v>
+      </c>
+      <c r="H57" s="2">
+        <v>589</v>
+      </c>
+      <c r="I57" s="2">
+        <v>558</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3465</v>
+      </c>
+      <c r="K57" s="2">
+        <v>694</v>
+      </c>
+      <c r="L57" s="2">
+        <v>668</v>
+      </c>
+      <c r="M57" t="s">
+        <v>926</v>
+      </c>
+      <c r="N57" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>865</v>
+      </c>
+      <c r="B58" t="s">
+        <v>909</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2">
+        <v>378</v>
+      </c>
+      <c r="E58" s="2">
+        <v>201</v>
+      </c>
+      <c r="F58" s="2">
+        <v>67</v>
+      </c>
+      <c r="G58" s="2">
+        <v>978</v>
+      </c>
+      <c r="H58" s="2">
+        <v>501</v>
+      </c>
+      <c r="I58" s="2">
+        <v>169</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1193</v>
+      </c>
+      <c r="K58" s="2">
+        <v>606</v>
+      </c>
+      <c r="L58" s="2">
+        <v>214</v>
+      </c>
+      <c r="M58" t="s">
+        <v>926</v>
+      </c>
+      <c r="N58" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>866</v>
+      </c>
+      <c r="B59" t="s">
+        <v>909</v>
+      </c>
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2">
+        <v>386</v>
+      </c>
+      <c r="E59" s="2">
+        <v>212</v>
+      </c>
+      <c r="F59" s="2">
+        <v>76</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H59" s="2">
+        <v>530</v>
+      </c>
+      <c r="I59" s="2">
+        <v>196</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K59" s="2">
+        <v>635</v>
+      </c>
+      <c r="L59" s="2">
+        <v>241</v>
+      </c>
+      <c r="M59" t="s">
+        <v>926</v>
+      </c>
+      <c r="N59" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>867</v>
+      </c>
+      <c r="B60" t="s">
+        <v>909</v>
+      </c>
+      <c r="C60">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2">
+        <v>386</v>
+      </c>
+      <c r="E60" s="2">
+        <v>212</v>
+      </c>
+      <c r="F60" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H60" s="2">
+        <v>530</v>
+      </c>
+      <c r="I60" s="2">
+        <v>196</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1219</v>
+      </c>
+      <c r="K60" s="2">
+        <v>635</v>
+      </c>
+      <c r="L60" s="2">
+        <v>241</v>
+      </c>
+      <c r="M60" t="s">
+        <v>926</v>
+      </c>
+      <c r="N60" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>868</v>
+      </c>
+      <c r="B61" t="s">
+        <v>909</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2">
+        <v>652</v>
+      </c>
+      <c r="E61" s="2">
+        <v>137</v>
+      </c>
+      <c r="F61" s="2">
+        <v>134</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1696</v>
+      </c>
+      <c r="H61" s="2">
+        <v>353</v>
+      </c>
+      <c r="I61" s="2">
+        <v>338</v>
+      </c>
+      <c r="J61" s="2">
+        <v>2056</v>
+      </c>
+      <c r="K61" s="2">
+        <v>413</v>
+      </c>
+      <c r="L61" s="2">
+        <v>403</v>
+      </c>
+      <c r="M61" t="s">
+        <v>926</v>
+      </c>
+      <c r="N61" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>869</v>
+      </c>
+      <c r="B62" t="s">
+        <v>909</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2">
+        <v>652</v>
+      </c>
+      <c r="E62" s="2">
+        <v>137</v>
+      </c>
+      <c r="F62" s="2">
+        <v>134</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1696</v>
+      </c>
+      <c r="H62" s="2">
+        <v>353</v>
+      </c>
+      <c r="I62" s="2">
+        <v>338</v>
+      </c>
+      <c r="J62" s="2">
+        <v>2056</v>
+      </c>
+      <c r="K62" s="2">
+        <v>413</v>
+      </c>
+      <c r="L62" s="2">
+        <v>403</v>
+      </c>
+      <c r="M62" t="s">
+        <v>926</v>
+      </c>
+      <c r="N62" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>870</v>
+      </c>
+      <c r="B63" t="s">
+        <v>909</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1231</v>
+      </c>
+      <c r="E63" s="2">
+        <v>467</v>
+      </c>
+      <c r="F63" s="2">
+        <v>270</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3217</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1169</v>
+      </c>
+      <c r="I63" s="2">
+        <v>678</v>
+      </c>
+      <c r="J63" s="2">
+        <v>3872</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1364</v>
+      </c>
+      <c r="L63" s="2">
+        <v>813</v>
+      </c>
+      <c r="M63" t="s">
+        <v>926</v>
+      </c>
+      <c r="N63" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>871</v>
+      </c>
+      <c r="B64" t="s">
+        <v>909</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1451</v>
+      </c>
+      <c r="E64" s="2">
+        <v>622</v>
+      </c>
+      <c r="F64" s="2">
+        <v>391</v>
+      </c>
+      <c r="G64" s="2">
+        <v>3617</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1516</v>
+      </c>
+      <c r="I64" s="2">
+        <v>979</v>
+      </c>
+      <c r="J64" s="2">
+        <v>4272</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1711</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1114</v>
+      </c>
+      <c r="M64" t="s">
+        <v>924</v>
+      </c>
+      <c r="N64" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>872</v>
+      </c>
+      <c r="B65" t="s">
+        <v>909</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2">
+        <v>652</v>
+      </c>
+      <c r="E65" s="2">
+        <v>137</v>
+      </c>
+      <c r="F65" s="2">
+        <v>134</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1696</v>
+      </c>
+      <c r="H65" s="2">
+        <v>353</v>
+      </c>
+      <c r="I65" s="2">
+        <v>338</v>
+      </c>
+      <c r="J65" s="2">
+        <v>2056</v>
+      </c>
+      <c r="K65" s="2">
+        <v>413</v>
+      </c>
+      <c r="L65" s="2">
+        <v>403</v>
+      </c>
+      <c r="M65" t="s">
+        <v>926</v>
+      </c>
+      <c r="N65" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>934</v>
+      </c>
+      <c r="B66" t="s">
+        <v>909</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
+        <v>395</v>
+      </c>
+      <c r="E66" s="2">
+        <v>224</v>
+      </c>
+      <c r="F66" s="2">
+        <v>84</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1031</v>
+      </c>
+      <c r="H66" s="2">
+        <v>560</v>
+      </c>
+      <c r="I66" s="2">
+        <v>222</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K66" s="2">
+        <v>665</v>
+      </c>
+      <c r="L66" s="2">
+        <v>267</v>
+      </c>
+      <c r="M66" t="s">
+        <v>926</v>
+      </c>
+      <c r="N66" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>873</v>
+      </c>
+      <c r="B67" t="s">
+        <v>909</v>
+      </c>
+      <c r="C67">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
+        <v>395</v>
+      </c>
+      <c r="E67" s="2">
+        <v>224</v>
+      </c>
+      <c r="F67" s="2">
+        <v>84</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1031</v>
+      </c>
+      <c r="H67" s="2">
+        <v>560</v>
+      </c>
+      <c r="I67" s="2">
+        <v>222</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K67" s="2">
+        <v>665</v>
+      </c>
+      <c r="L67" s="2">
+        <v>267</v>
+      </c>
+      <c r="M67" t="s">
+        <v>926</v>
+      </c>
+      <c r="N67" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>874</v>
+      </c>
+      <c r="B68" t="s">
+        <v>909</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2">
+        <v>516</v>
+      </c>
+      <c r="E68" s="2">
+        <v>294</v>
+      </c>
+      <c r="F68" s="2">
+        <v>111</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1344</v>
+      </c>
+      <c r="H68" s="2">
+        <v>738</v>
+      </c>
+      <c r="I68" s="2">
+        <v>291</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1624</v>
+      </c>
+      <c r="K68" s="2">
+        <v>873</v>
+      </c>
+      <c r="L68" s="2">
+        <v>351</v>
+      </c>
+      <c r="M68" t="s">
+        <v>926</v>
+      </c>
+      <c r="N68" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>875</v>
+      </c>
+      <c r="B69" t="s">
+        <v>909</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69" s="2">
+        <v>659</v>
+      </c>
+      <c r="E69" s="2">
+        <v>361</v>
+      </c>
+      <c r="F69" s="2">
+        <v>125</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1709</v>
+      </c>
+      <c r="H69" s="2">
+        <v>901</v>
+      </c>
+      <c r="I69" s="2">
+        <v>323</v>
+      </c>
+      <c r="J69" s="2">
+        <v>2074</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1076</v>
+      </c>
+      <c r="L69" s="2">
+        <v>403</v>
+      </c>
+      <c r="M69" t="s">
+        <v>926</v>
+      </c>
+      <c r="N69" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>876</v>
+      </c>
+      <c r="B70" t="s">
+        <v>909</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2">
+        <v>659</v>
+      </c>
+      <c r="E70" s="2">
+        <v>361</v>
+      </c>
+      <c r="F70" s="2">
+        <v>125</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1709</v>
+      </c>
+      <c r="H70" s="2">
+        <v>901</v>
+      </c>
+      <c r="I70" s="2">
+        <v>323</v>
+      </c>
+      <c r="J70" s="2">
+        <v>2074</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1076</v>
+      </c>
+      <c r="L70" s="2">
+        <v>403</v>
+      </c>
+      <c r="M70" t="s">
+        <v>926</v>
+      </c>
+      <c r="N70" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>877</v>
+      </c>
+      <c r="B71" t="s">
+        <v>910</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1231</v>
+      </c>
+      <c r="E71" s="2">
+        <v>467</v>
+      </c>
+      <c r="F71" s="2">
+        <v>270</v>
+      </c>
+      <c r="G71" s="2">
+        <v>3217</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1169</v>
+      </c>
+      <c r="I71" s="2">
+        <v>678</v>
+      </c>
+      <c r="J71" s="2">
+        <v>3872</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1364</v>
+      </c>
+      <c r="L71" s="2">
+        <v>813</v>
+      </c>
+      <c r="M71" t="s">
+        <v>926</v>
+      </c>
+      <c r="N71" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>878</v>
+      </c>
+      <c r="B72" t="s">
+        <v>909</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2">
+        <v>395</v>
+      </c>
+      <c r="E72" s="2">
+        <v>224</v>
+      </c>
+      <c r="F72" s="2">
+        <v>84</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1031</v>
+      </c>
+      <c r="H72" s="2">
+        <v>560</v>
+      </c>
+      <c r="I72" s="2">
+        <v>222</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K72" s="2">
+        <v>665</v>
+      </c>
+      <c r="L72" s="2">
+        <v>267</v>
+      </c>
+      <c r="M72" t="s">
+        <v>926</v>
+      </c>
+      <c r="N72" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>879</v>
+      </c>
+      <c r="B73" t="s">
+        <v>909</v>
+      </c>
+      <c r="C73">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2">
+        <v>395</v>
+      </c>
+      <c r="E73" s="2">
+        <v>224</v>
+      </c>
+      <c r="F73" s="2">
+        <v>84</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1031</v>
+      </c>
+      <c r="H73" s="2">
+        <v>560</v>
+      </c>
+      <c r="I73" s="2">
+        <v>222</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K73" s="2">
+        <v>665</v>
+      </c>
+      <c r="L73" s="2">
+        <v>267</v>
+      </c>
+      <c r="M73" t="s">
+        <v>926</v>
+      </c>
+      <c r="N73" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>880</v>
+      </c>
+      <c r="B74" t="s">
+        <v>909</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2">
+        <v>395</v>
+      </c>
+      <c r="E74" s="2">
+        <v>224</v>
+      </c>
+      <c r="F74" s="2">
+        <v>84</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1031</v>
+      </c>
+      <c r="H74" s="2">
+        <v>560</v>
+      </c>
+      <c r="I74" s="2">
+        <v>222</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K74" s="2">
+        <v>665</v>
+      </c>
+      <c r="L74" s="2">
+        <v>267</v>
+      </c>
+      <c r="M74" t="s">
+        <v>926</v>
+      </c>
+      <c r="N74" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>881</v>
+      </c>
+      <c r="B75" t="s">
+        <v>910</v>
+      </c>
+      <c r="C75">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2">
+        <v>404</v>
+      </c>
+      <c r="E75" s="2">
+        <v>236</v>
+      </c>
+      <c r="F75" s="2">
+        <v>93</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1058</v>
+      </c>
+      <c r="H75" s="2">
+        <v>590</v>
+      </c>
+      <c r="I75" s="2">
+        <v>249</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1273</v>
+      </c>
+      <c r="K75" s="2">
+        <v>695</v>
+      </c>
+      <c r="L75" s="2">
+        <v>294</v>
+      </c>
+      <c r="M75" t="s">
+        <v>926</v>
+      </c>
+      <c r="N75" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>882</v>
+      </c>
+      <c r="B76" t="s">
+        <v>910</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2">
+        <v>602</v>
+      </c>
+      <c r="E76" s="2">
+        <v>206</v>
+      </c>
+      <c r="F76" s="2">
+        <v>123</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1550</v>
+      </c>
+      <c r="H76" s="2">
+        <v>530</v>
+      </c>
+      <c r="I76" s="2">
+        <v>321</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1870</v>
+      </c>
+      <c r="K76" s="2">
+        <v>615</v>
+      </c>
+      <c r="L76" s="2">
+        <v>386</v>
+      </c>
+      <c r="M76" t="s">
+        <v>926</v>
+      </c>
+      <c r="N76" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>883</v>
+      </c>
+      <c r="B77" t="s">
+        <v>910</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77" s="2">
+        <v>659</v>
+      </c>
+      <c r="E77" s="2">
+        <v>361</v>
+      </c>
+      <c r="F77" s="2">
+        <v>125</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1709</v>
+      </c>
+      <c r="H77" s="2">
+        <v>901</v>
+      </c>
+      <c r="I77" s="2">
+        <v>323</v>
+      </c>
+      <c r="J77" s="2">
+        <v>2074</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1076</v>
+      </c>
+      <c r="L77" s="2">
+        <v>403</v>
+      </c>
+      <c r="M77" t="s">
+        <v>926</v>
+      </c>
+      <c r="N77" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>884</v>
+      </c>
+      <c r="B78" t="s">
+        <v>910</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1231</v>
+      </c>
+      <c r="E78" s="2">
+        <v>467</v>
+      </c>
+      <c r="F78" s="2">
+        <v>270</v>
+      </c>
+      <c r="G78" s="2">
+        <v>3217</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1169</v>
+      </c>
+      <c r="I78" s="2">
+        <v>678</v>
+      </c>
+      <c r="J78" s="2">
+        <v>3872</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1364</v>
+      </c>
+      <c r="L78" s="2">
+        <v>813</v>
+      </c>
+      <c r="M78" t="s">
+        <v>926</v>
+      </c>
+      <c r="N78" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>885</v>
+      </c>
+      <c r="B79" t="s">
+        <v>909</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2">
+        <v>395</v>
+      </c>
+      <c r="E79" s="2">
+        <v>224</v>
+      </c>
+      <c r="F79" s="2">
+        <v>84</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1031</v>
+      </c>
+      <c r="H79" s="2">
+        <v>560</v>
+      </c>
+      <c r="I79" s="2">
+        <v>222</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K79" s="2">
+        <v>665</v>
+      </c>
+      <c r="L79" s="2">
+        <v>267</v>
+      </c>
+      <c r="M79" t="s">
+        <v>926</v>
+      </c>
+      <c r="N79" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>886</v>
+      </c>
+      <c r="B80" t="s">
+        <v>909</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2">
+        <v>395</v>
+      </c>
+      <c r="E80" s="2">
+        <v>224</v>
+      </c>
+      <c r="F80" s="2">
+        <v>84</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1031</v>
+      </c>
+      <c r="H80" s="2">
+        <v>560</v>
+      </c>
+      <c r="I80" s="2">
+        <v>222</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1246</v>
+      </c>
+      <c r="K80" s="2">
+        <v>665</v>
+      </c>
+      <c r="L80" s="2">
+        <v>267</v>
+      </c>
+      <c r="M80" t="s">
+        <v>926</v>
+      </c>
+      <c r="N80" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>887</v>
+      </c>
+      <c r="B81" t="s">
+        <v>909</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81" s="2">
+        <v>859</v>
+      </c>
+      <c r="E81" s="2">
+        <v>190</v>
+      </c>
+      <c r="F81" s="2">
+        <v>191</v>
+      </c>
+      <c r="G81" s="2">
+        <v>2239</v>
+      </c>
+      <c r="H81" s="2">
+        <v>496</v>
+      </c>
+      <c r="I81" s="2">
+        <v>479</v>
+      </c>
+      <c r="J81" s="2">
+        <v>2709</v>
+      </c>
+      <c r="K81" s="2">
+        <v>576</v>
+      </c>
+      <c r="L81" s="2">
+        <v>564</v>
+      </c>
+      <c r="M81" t="s">
+        <v>926</v>
+      </c>
+      <c r="N81" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>888</v>
+      </c>
+      <c r="B82" t="s">
+        <v>909</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82" s="2">
+        <v>674</v>
+      </c>
+      <c r="E82" s="2">
+        <v>380</v>
+      </c>
+      <c r="F82" s="2">
+        <v>140</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1754</v>
+      </c>
+      <c r="H82" s="2">
+        <v>950</v>
+      </c>
+      <c r="I82" s="2">
+        <v>368</v>
+      </c>
+      <c r="J82" s="2">
+        <v>2119</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1125</v>
+      </c>
+      <c r="L82" s="2">
+        <v>448</v>
+      </c>
+      <c r="M82" t="s">
+        <v>926</v>
+      </c>
+      <c r="N82" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>889</v>
+      </c>
+      <c r="B83" t="s">
+        <v>909</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83" s="2">
+        <v>847</v>
+      </c>
+      <c r="E83" s="2">
+        <v>179</v>
+      </c>
+      <c r="F83" s="2">
+        <v>175</v>
+      </c>
+      <c r="G83" s="2">
+        <v>2203</v>
+      </c>
+      <c r="H83" s="2">
+        <v>461</v>
+      </c>
+      <c r="I83" s="2">
+        <v>439</v>
+      </c>
+      <c r="J83" s="2">
+        <v>2673</v>
+      </c>
+      <c r="K83" s="2">
+        <v>541</v>
+      </c>
+      <c r="L83" s="2">
+        <v>524</v>
+      </c>
+      <c r="M83" t="s">
+        <v>926</v>
+      </c>
+      <c r="N83" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>890</v>
+      </c>
+      <c r="B84" t="s">
+        <v>909</v>
+      </c>
+      <c r="C84">
+        <v>16</v>
+      </c>
+      <c r="D84" s="2">
+        <v>516</v>
+      </c>
+      <c r="E84" s="2">
+        <v>294</v>
+      </c>
+      <c r="F84" s="2">
+        <v>111</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1344</v>
+      </c>
+      <c r="H84" s="2">
+        <v>738</v>
+      </c>
+      <c r="I84" s="2">
+        <v>291</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1624</v>
+      </c>
+      <c r="K84" s="2">
+        <v>873</v>
+      </c>
+      <c r="L84" s="2">
+        <v>351</v>
+      </c>
+      <c r="M84" t="s">
+        <v>926</v>
+      </c>
+      <c r="N84" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>891</v>
+      </c>
+      <c r="B85" t="s">
+        <v>909</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1231</v>
+      </c>
+      <c r="E85" s="2">
+        <v>467</v>
+      </c>
+      <c r="F85" s="2">
+        <v>270</v>
+      </c>
+      <c r="G85" s="2">
+        <v>3217</v>
+      </c>
+      <c r="H85" s="2">
+        <v>1169</v>
+      </c>
+      <c r="I85" s="2">
+        <v>678</v>
+      </c>
+      <c r="J85" s="2">
+        <v>3872</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1364</v>
+      </c>
+      <c r="L85" s="2">
+        <v>813</v>
+      </c>
+      <c r="M85" t="s">
+        <v>926</v>
+      </c>
+      <c r="N85" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>892</v>
+      </c>
+      <c r="B86" t="s">
+        <v>910</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+      <c r="D86" s="2">
+        <v>412</v>
+      </c>
+      <c r="E86" s="2">
+        <v>246</v>
+      </c>
+      <c r="F86" s="2">
+        <v>102</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1084</v>
+      </c>
+      <c r="H86" s="2">
+        <v>618</v>
+      </c>
+      <c r="I86" s="2">
+        <v>276</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1299</v>
+      </c>
+      <c r="K86" s="2">
+        <v>723</v>
+      </c>
+      <c r="L86" s="2">
+        <v>321</v>
+      </c>
+      <c r="M86" t="s">
+        <v>926</v>
+      </c>
+      <c r="N86" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>893</v>
+      </c>
+      <c r="B87" t="s">
+        <v>909</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87" s="2">
+        <v>859</v>
+      </c>
+      <c r="E87" s="2">
+        <v>190</v>
+      </c>
+      <c r="F87" s="2">
+        <v>191</v>
+      </c>
+      <c r="G87" s="2">
+        <v>2239</v>
+      </c>
+      <c r="H87" s="2">
+        <v>496</v>
+      </c>
+      <c r="I87" s="2">
+        <v>479</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2709</v>
+      </c>
+      <c r="K87" s="2">
+        <v>576</v>
+      </c>
+      <c r="L87" s="2">
+        <v>564</v>
+      </c>
+      <c r="M87" t="s">
+        <v>926</v>
+      </c>
+      <c r="N87" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>894</v>
+      </c>
+      <c r="B88" t="s">
+        <v>909</v>
+      </c>
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2">
+        <v>527</v>
+      </c>
+      <c r="E88" s="2">
+        <v>310</v>
+      </c>
+      <c r="F88" s="2">
+        <v>122</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1379</v>
+      </c>
+      <c r="H88" s="2">
+        <v>778</v>
+      </c>
+      <c r="I88" s="2">
+        <v>326</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1659</v>
+      </c>
+      <c r="K88" s="2">
+        <v>913</v>
+      </c>
+      <c r="L88" s="2">
+        <v>386</v>
+      </c>
+      <c r="M88" t="s">
+        <v>926</v>
+      </c>
+      <c r="N88" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>895</v>
+      </c>
+      <c r="B89" t="s">
+        <v>909</v>
+      </c>
+      <c r="C89">
+        <v>20</v>
+      </c>
+      <c r="D89" s="2">
+        <v>688</v>
+      </c>
+      <c r="E89" s="2">
+        <v>400</v>
+      </c>
+      <c r="F89" s="2">
+        <v>154</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1798</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I89" s="2">
+        <v>412</v>
+      </c>
+      <c r="J89" s="2">
+        <v>2163</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1175</v>
+      </c>
+      <c r="L89" s="2">
+        <v>492</v>
+      </c>
+      <c r="M89" t="s">
+        <v>926</v>
+      </c>
+      <c r="N89" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>896</v>
+      </c>
+      <c r="B90" t="s">
+        <v>909</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2">
+        <v>539</v>
+      </c>
+      <c r="E90" s="2">
+        <v>325</v>
+      </c>
+      <c r="F90" s="2">
+        <v>134</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1415</v>
+      </c>
+      <c r="H90" s="2">
+        <v>817</v>
+      </c>
+      <c r="I90" s="2">
+        <v>362</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1695</v>
+      </c>
+      <c r="K90" s="2">
+        <v>952</v>
+      </c>
+      <c r="L90" s="2">
+        <v>422</v>
+      </c>
+      <c r="M90" t="s">
+        <v>926</v>
+      </c>
+      <c r="N90" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>897</v>
+      </c>
+      <c r="B91" t="s">
+        <v>910</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1049</v>
+      </c>
+      <c r="E91" s="2">
+        <v>360</v>
+      </c>
+      <c r="F91" s="2">
+        <v>219</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2699</v>
+      </c>
+      <c r="H91" s="2">
+        <v>930</v>
+      </c>
+      <c r="I91" s="2">
+        <v>579</v>
+      </c>
+      <c r="J91" s="2">
+        <v>3239</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1075</v>
+      </c>
+      <c r="L91" s="2">
+        <v>689</v>
+      </c>
+      <c r="M91" t="s">
+        <v>926</v>
+      </c>
+      <c r="N91" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>898</v>
+      </c>
+      <c r="B92" t="s">
+        <v>909</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1231</v>
+      </c>
+      <c r="E92" s="2">
+        <v>467</v>
+      </c>
+      <c r="F92" s="2">
+        <v>270</v>
+      </c>
+      <c r="G92" s="2">
+        <v>3217</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1169</v>
+      </c>
+      <c r="I92" s="2">
+        <v>678</v>
+      </c>
+      <c r="J92" s="2">
+        <v>3872</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1364</v>
+      </c>
+      <c r="L92" s="2">
+        <v>813</v>
+      </c>
+      <c r="M92" t="s">
+        <v>926</v>
+      </c>
+      <c r="N92" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>899</v>
+      </c>
+      <c r="B93" t="s">
+        <v>910</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+      <c r="D93" s="2">
+        <v>968</v>
+      </c>
+      <c r="E93" s="2">
+        <v>385</v>
+      </c>
+      <c r="F93" s="2">
+        <v>237</v>
+      </c>
+      <c r="G93" s="2">
+        <v>2534</v>
+      </c>
+      <c r="H93" s="2">
+        <v>967</v>
+      </c>
+      <c r="I93" s="2">
+        <v>597</v>
+      </c>
+      <c r="J93" s="2">
+        <v>3039</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1117</v>
+      </c>
+      <c r="L93" s="2">
+        <v>702</v>
+      </c>
+      <c r="M93" t="s">
+        <v>927</v>
+      </c>
+      <c r="N93" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>900</v>
+      </c>
+      <c r="B94" t="s">
+        <v>909</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1126</v>
+      </c>
+      <c r="E94" s="2">
+        <v>258</v>
+      </c>
+      <c r="F94" s="2">
+        <v>261</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2944</v>
+      </c>
+      <c r="H94" s="2">
+        <v>678</v>
+      </c>
+      <c r="I94" s="2">
+        <v>657</v>
+      </c>
+      <c r="J94" s="2">
+        <v>3554</v>
+      </c>
+      <c r="K94" s="2">
+        <v>783</v>
+      </c>
+      <c r="L94" s="2">
+        <v>767</v>
+      </c>
+      <c r="M94" t="s">
+        <v>927</v>
+      </c>
+      <c r="N94" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>901</v>
+      </c>
+      <c r="B95" t="s">
+        <v>909</v>
+      </c>
+      <c r="C95">
+        <v>27</v>
+      </c>
+      <c r="D95" s="2">
+        <v>937</v>
+      </c>
+      <c r="E95" s="2">
+        <v>567</v>
+      </c>
+      <c r="F95" s="2">
+        <v>239</v>
+      </c>
+      <c r="G95" s="2">
+        <v>2437</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1407</v>
+      </c>
+      <c r="I95" s="2">
+        <v>641</v>
+      </c>
+      <c r="J95" s="2">
+        <v>2912</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1637</v>
+      </c>
+      <c r="L95" s="2">
+        <v>746</v>
+      </c>
+      <c r="M95" t="s">
+        <v>927</v>
+      </c>
+      <c r="N95" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>902</v>
+      </c>
+      <c r="B96" t="s">
+        <v>910</v>
+      </c>
+      <c r="C96">
+        <v>28</v>
+      </c>
+      <c r="D96" s="2">
+        <v>937</v>
+      </c>
+      <c r="E96" s="2">
+        <v>605</v>
+      </c>
+      <c r="F96" s="2">
+        <v>239</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2437</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1505</v>
+      </c>
+      <c r="I96" s="2">
+        <v>641</v>
+      </c>
+      <c r="J96" s="2">
+        <v>2912</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1735</v>
+      </c>
+      <c r="L96" s="2">
+        <v>746</v>
+      </c>
+      <c r="M96" t="s">
+        <v>927</v>
+      </c>
+      <c r="N96" t="s">
+        <v>931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="D16:L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>910</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1" t="s">
         <v>912</v>
       </c>
-      <c r="C1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>913</v>
+      </c>
+      <c r="G1" t="s">
+        <v>914</v>
+      </c>
+      <c r="H1" t="s">
         <v>915</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>916</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>917</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>918</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>919</v>
-      </c>
-      <c r="I1" t="s">
-        <v>920</v>
-      </c>
-      <c r="J1" t="s">
-        <v>921</v>
-      </c>
-      <c r="K1" t="s">
-        <v>922</v>
-      </c>
-      <c r="L1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>812</v>
+        <v>923</v>
       </c>
       <c r="B2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C2">
-        <v>19</v>
+        <v>928</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(A2,"_",B2)</f>
+        <v>7_knight_earth</v>
       </c>
       <c r="D2">
-        <v>1560</v>
+        <v>1743</v>
       </c>
       <c r="E2">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="F2">
-        <v>356</v>
+        <v>475</v>
       </c>
       <c r="G2">
-        <v>3556</v>
+        <v>4275</v>
       </c>
       <c r="H2">
-        <v>1062</v>
+        <v>1180</v>
       </c>
       <c r="I2">
-        <v>700</v>
+        <v>1189</v>
       </c>
       <c r="J2">
-        <v>4010</v>
+        <v>5070</v>
       </c>
       <c r="K2">
-        <v>1288</v>
+        <v>1315</v>
       </c>
       <c r="L2">
-        <v>924</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>813</v>
+        <v>923</v>
       </c>
       <c r="B3" t="s">
-        <v>913</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
+        <v>929</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C13" si="0">CONCATENATE(A3,"_",B3)</f>
+        <v>7_knight_dark</v>
+      </c>
+      <c r="D3">
+        <v>1486</v>
+      </c>
+      <c r="E3">
+        <v>637</v>
+      </c>
+      <c r="F3">
+        <v>415</v>
+      </c>
+      <c r="G3">
+        <v>3688</v>
+      </c>
+      <c r="H3">
+        <v>1555</v>
+      </c>
+      <c r="I3">
+        <v>1039</v>
+      </c>
+      <c r="J3">
+        <v>4343</v>
+      </c>
+      <c r="K3">
+        <v>1750</v>
+      </c>
+      <c r="L3">
+        <v>1174</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>814</v>
+        <v>923</v>
       </c>
       <c r="B4" t="s">
-        <v>913</v>
-      </c>
-      <c r="C4">
-        <v>21</v>
+        <v>930</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>7_knight_fire</v>
+      </c>
+      <c r="D4">
+        <v>1086</v>
+      </c>
+      <c r="E4">
+        <v>696</v>
+      </c>
+      <c r="F4">
+        <v>328</v>
+      </c>
+      <c r="G4">
+        <v>2730</v>
+      </c>
+      <c r="H4">
+        <v>1680</v>
+      </c>
+      <c r="I4">
+        <v>874</v>
+      </c>
+      <c r="J4">
+        <v>3205</v>
+      </c>
+      <c r="K4">
+        <v>1910</v>
+      </c>
+      <c r="L4">
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>815</v>
+        <v>923</v>
       </c>
       <c r="B5" t="s">
-        <v>913</v>
-      </c>
-      <c r="C5">
-        <v>31</v>
+        <v>931</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>7_knight_water</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>816</v>
+        <v>923</v>
       </c>
       <c r="B6" t="s">
-        <v>913</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
+        <v>932</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>7_knight_light</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>817</v>
+        <v>925</v>
       </c>
       <c r="B7" t="s">
-        <v>913</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
+        <v>928</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>regular_earth</v>
+      </c>
+      <c r="D7">
+        <v>1456</v>
+      </c>
+      <c r="E7">
+        <v>333</v>
+      </c>
+      <c r="F7">
+        <v>347</v>
+      </c>
+      <c r="G7">
+        <v>3808</v>
+      </c>
+      <c r="H7">
+        <v>873</v>
+      </c>
+      <c r="I7">
+        <v>881</v>
+      </c>
+      <c r="J7">
+        <v>4603</v>
+      </c>
+      <c r="K7">
+        <v>1008</v>
+      </c>
+      <c r="L7">
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>818</v>
+        <v>925</v>
       </c>
       <c r="B8" t="s">
-        <v>913</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
+        <v>929</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>regular_dark</v>
+      </c>
+      <c r="D8">
+        <v>1231</v>
+      </c>
+      <c r="E8">
+        <v>467</v>
+      </c>
+      <c r="F8">
+        <v>270</v>
+      </c>
+      <c r="G8">
+        <v>3217</v>
+      </c>
+      <c r="H8">
+        <v>1169</v>
+      </c>
+      <c r="I8">
+        <v>678</v>
+      </c>
+      <c r="J8">
+        <v>3872</v>
+      </c>
+      <c r="K8">
+        <v>1364</v>
+      </c>
+      <c r="L8">
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>819</v>
+        <v>925</v>
       </c>
       <c r="B9" t="s">
-        <v>913</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
+        <v>930</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>regular_fire</v>
+      </c>
+      <c r="D9">
+        <v>882</v>
+      </c>
+      <c r="E9">
+        <v>511</v>
+      </c>
+      <c r="F9">
+        <v>199</v>
+      </c>
+      <c r="G9">
+        <v>2310</v>
+      </c>
+      <c r="H9">
+        <v>1279</v>
+      </c>
+      <c r="I9">
+        <v>529</v>
+      </c>
+      <c r="J9">
+        <v>2785</v>
+      </c>
+      <c r="K9">
+        <v>1509</v>
+      </c>
+      <c r="L9">
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>820</v>
+        <v>925</v>
       </c>
       <c r="B10" t="s">
-        <v>913</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
+        <v>931</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>regular_water</v>
+      </c>
+      <c r="D10">
+        <v>882</v>
+      </c>
+      <c r="E10">
+        <v>511</v>
+      </c>
+      <c r="F10">
+        <v>199</v>
+      </c>
+      <c r="G10">
+        <v>2310</v>
+      </c>
+      <c r="H10">
+        <v>1279</v>
+      </c>
+      <c r="I10">
+        <v>529</v>
+      </c>
+      <c r="J10">
+        <v>2785</v>
+      </c>
+      <c r="K10">
+        <v>1509</v>
+      </c>
+      <c r="L10">
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>821</v>
+        <v>925</v>
       </c>
       <c r="B11" t="s">
-        <v>914</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
+        <v>932</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>regular_light</v>
+      </c>
+      <c r="D11">
+        <v>1049</v>
+      </c>
+      <c r="E11">
+        <v>360</v>
+      </c>
+      <c r="F11">
+        <v>219</v>
+      </c>
+      <c r="G11">
+        <v>2699</v>
+      </c>
+      <c r="H11">
+        <v>930</v>
+      </c>
+      <c r="I11">
+        <v>579</v>
+      </c>
+      <c r="J11">
+        <v>3239</v>
+      </c>
+      <c r="K11">
+        <v>1075</v>
+      </c>
+      <c r="L11">
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>822</v>
-      </c>
-      <c r="B12" t="s">
-        <v>914</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
+        <v>926</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>asgar_</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>823</v>
+        <v>927</v>
       </c>
       <c r="B13" t="s">
-        <v>913</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
+        <v>928</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>aisha_earth</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>824</v>
+        <v>927</v>
       </c>
       <c r="B14" t="s">
-        <v>914</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
+        <v>929</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:C17" si="1">CONCATENATE(A14,"_",B14)</f>
+        <v>aisha_dark</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>825</v>
+        <v>927</v>
       </c>
       <c r="B15" t="s">
-        <v>913</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
+        <v>930</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>aisha_fire</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>826</v>
+        <v>927</v>
       </c>
       <c r="B16" t="s">
-        <v>913</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
+        <v>931</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>aisha_water</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>827</v>
+        <v>927</v>
       </c>
       <c r="B17" t="s">
-        <v>913</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>828</v>
-      </c>
-      <c r="B18" t="s">
-        <v>913</v>
-      </c>
-      <c r="C18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>829</v>
-      </c>
-      <c r="B19" t="s">
-        <v>914</v>
-      </c>
-      <c r="C19">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>830</v>
-      </c>
-      <c r="B20" t="s">
-        <v>914</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>831</v>
-      </c>
-      <c r="B21" t="s">
-        <v>913</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>832</v>
-      </c>
-      <c r="B22" t="s">
-        <v>914</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>833</v>
-      </c>
-      <c r="B23" t="s">
-        <v>914</v>
-      </c>
-      <c r="C23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>834</v>
-      </c>
-      <c r="B24" t="s">
-        <v>914</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>835</v>
-      </c>
-      <c r="B25" t="s">
-        <v>913</v>
-      </c>
-      <c r="C25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>836</v>
-      </c>
-      <c r="B26" t="s">
-        <v>913</v>
-      </c>
-      <c r="C26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>837</v>
-      </c>
-      <c r="B27" t="s">
-        <v>914</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>838</v>
-      </c>
-      <c r="B28" t="s">
-        <v>913</v>
-      </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>839</v>
-      </c>
-      <c r="B29" t="s">
-        <v>914</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>840</v>
-      </c>
-      <c r="B30" t="s">
-        <v>913</v>
-      </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>924</v>
-      </c>
-      <c r="B31" t="s">
-        <v>914</v>
-      </c>
-      <c r="C31">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>841</v>
-      </c>
-      <c r="B32" t="s">
-        <v>913</v>
-      </c>
-      <c r="C32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>842</v>
-      </c>
-      <c r="B33" t="s">
-        <v>913</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>843</v>
-      </c>
-      <c r="B34" t="s">
-        <v>914</v>
-      </c>
-      <c r="C34">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>844</v>
-      </c>
-      <c r="B35" t="s">
-        <v>913</v>
-      </c>
-      <c r="C35">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>845</v>
-      </c>
-      <c r="B36" t="s">
-        <v>913</v>
-      </c>
-      <c r="C36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>846</v>
-      </c>
-      <c r="B37" t="s">
-        <v>914</v>
-      </c>
-      <c r="C37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>873</v>
-      </c>
-      <c r="B64" t="s">
-        <v>913</v>
-      </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>905</v>
+        <v>932</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>aisha_light</v>
       </c>
     </row>
   </sheetData>
@@ -13182,7 +17339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B146"/>
   <sheetViews>
@@ -13287,7 +17444,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B12" t="s">
         <v>135</v>
@@ -13335,7 +17492,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B18" t="s">
         <v>136</v>
@@ -13343,7 +17500,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B19" t="s">
         <v>136</v>
@@ -13351,7 +17508,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B20" t="s">
         <v>136</v>
@@ -13359,7 +17516,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B21" t="s">
         <v>136</v>
@@ -13431,7 +17588,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
@@ -13887,7 +18044,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B87" t="s">
         <v>137</v>
@@ -13895,7 +18052,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B88" t="s">
         <v>137</v>
@@ -13903,7 +18060,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B89" t="s">
         <v>137</v>
@@ -14378,7 +18535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
